--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Tgfb1-Eng.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Tgfb1-Eng.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>47.5185264413788</v>
+        <v>48.746633</v>
       </c>
       <c r="H2">
-        <v>47.5185264413788</v>
+        <v>146.239899</v>
       </c>
       <c r="I2">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="J2">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>232.991650498693</v>
+        <v>233.0249173333333</v>
       </c>
       <c r="N2">
-        <v>232.991650498693</v>
+        <v>699.074752</v>
       </c>
       <c r="O2">
-        <v>0.7694824254598334</v>
+        <v>0.765932814443446</v>
       </c>
       <c r="P2">
-        <v>0.7694824254598334</v>
+        <v>0.765932814443446</v>
       </c>
       <c r="Q2">
-        <v>11071.41990484263</v>
+        <v>11359.18012510334</v>
       </c>
       <c r="R2">
-        <v>11071.41990484263</v>
+        <v>102232.62112593</v>
       </c>
       <c r="S2">
-        <v>0.1184759899358759</v>
+        <v>0.1186729271828607</v>
       </c>
       <c r="T2">
-        <v>0.1184759899358759</v>
+        <v>0.1186729271828607</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>47.5185264413788</v>
+        <v>48.746633</v>
       </c>
       <c r="H3">
-        <v>47.5185264413788</v>
+        <v>146.239899</v>
       </c>
       <c r="I3">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="J3">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>51.4615638380835</v>
+        <v>51.70670833333333</v>
       </c>
       <c r="N3">
-        <v>51.4615638380835</v>
+        <v>155.120125</v>
       </c>
       <c r="O3">
-        <v>0.1699578885137203</v>
+        <v>0.1699554927111273</v>
       </c>
       <c r="P3">
-        <v>0.1699578885137203</v>
+        <v>0.1699554927111273</v>
       </c>
       <c r="Q3">
-        <v>2445.377681954674</v>
+        <v>2520.527934763041</v>
       </c>
       <c r="R3">
-        <v>2445.377681954674</v>
+        <v>22684.75141286737</v>
       </c>
       <c r="S3">
-        <v>0.02616814682549929</v>
+        <v>0.0263327480302439</v>
       </c>
       <c r="T3">
-        <v>0.02616814682549929</v>
+        <v>0.02633274803024391</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>47.5185264413788</v>
+        <v>48.746633</v>
       </c>
       <c r="H4">
-        <v>47.5185264413788</v>
+        <v>146.239899</v>
       </c>
       <c r="I4">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="J4">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.47902740581381</v>
+        <v>8.768542333333334</v>
       </c>
       <c r="N4">
-        <v>8.47902740581381</v>
+        <v>26.305627</v>
       </c>
       <c r="O4">
-        <v>0.0280029887757828</v>
+        <v>0.02882144272292286</v>
       </c>
       <c r="P4">
-        <v>0.0280029887757828</v>
+        <v>0.02882144272292286</v>
       </c>
       <c r="Q4">
-        <v>402.9108879803391</v>
+        <v>427.4369150679637</v>
       </c>
       <c r="R4">
-        <v>402.9108879803391</v>
+        <v>3846.932235611673</v>
       </c>
       <c r="S4">
-        <v>0.004311575815901815</v>
+        <v>0.004465567878884709</v>
       </c>
       <c r="T4">
-        <v>0.004311575815901815</v>
+        <v>0.004465567878884709</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>47.5185264413788</v>
+        <v>48.746633</v>
       </c>
       <c r="H5">
-        <v>47.5185264413788</v>
+        <v>146.239899</v>
       </c>
       <c r="I5">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="J5">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.93010830685243</v>
+        <v>6.761708</v>
       </c>
       <c r="N5">
-        <v>5.93010830685243</v>
+        <v>20.285124</v>
       </c>
       <c r="O5">
-        <v>0.01958488260600528</v>
+        <v>0.02222515127631772</v>
       </c>
       <c r="P5">
-        <v>0.01958488260600528</v>
+        <v>0.02222515127631772</v>
       </c>
       <c r="Q5">
-        <v>281.7900083794073</v>
+        <v>329.6104983291639</v>
       </c>
       <c r="R5">
-        <v>281.7900083794073</v>
+        <v>2966.494484962475</v>
       </c>
       <c r="S5">
-        <v>0.003015453345978351</v>
+        <v>0.003443544537204656</v>
       </c>
       <c r="T5">
-        <v>0.003015453345978351</v>
+        <v>0.003443544537204656</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>47.5185264413788</v>
+        <v>48.746633</v>
       </c>
       <c r="H6">
-        <v>47.5185264413788</v>
+        <v>146.239899</v>
       </c>
       <c r="I6">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="J6">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.92773688393973</v>
+        <v>3.974883333333333</v>
       </c>
       <c r="N6">
-        <v>3.92773688393973</v>
+        <v>11.92465</v>
       </c>
       <c r="O6">
-        <v>0.01297181464465803</v>
+        <v>0.0130650988461861</v>
       </c>
       <c r="P6">
-        <v>0.01297181464465803</v>
+        <v>0.01306509884618611</v>
       </c>
       <c r="Q6">
-        <v>186.6402689742688</v>
+        <v>193.7621790678166</v>
       </c>
       <c r="R6">
-        <v>186.6402689742688</v>
+        <v>1743.85961161035</v>
       </c>
       <c r="S6">
-        <v>0.001997249749235209</v>
+        <v>0.002024294422137991</v>
       </c>
       <c r="T6">
-        <v>0.001997249749235209</v>
+        <v>0.002024294422137991</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.8969952578389</v>
+        <v>18.65566266666667</v>
       </c>
       <c r="H7">
-        <v>17.8969952578389</v>
+        <v>55.966988</v>
       </c>
       <c r="I7">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958762</v>
       </c>
       <c r="J7">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958761</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>232.991650498693</v>
+        <v>233.0249173333333</v>
       </c>
       <c r="N7">
-        <v>232.991650498693</v>
+        <v>699.074752</v>
       </c>
       <c r="O7">
-        <v>0.7694824254598334</v>
+        <v>0.765932814443446</v>
       </c>
       <c r="P7">
-        <v>0.7694824254598334</v>
+        <v>0.765932814443446</v>
       </c>
       <c r="Q7">
-        <v>4169.850464091167</v>
+        <v>4347.234250698553</v>
       </c>
       <c r="R7">
-        <v>4169.850464091167</v>
+        <v>39125.10825628698</v>
       </c>
       <c r="S7">
-        <v>0.04462184307558286</v>
+        <v>0.04541692340452204</v>
       </c>
       <c r="T7">
-        <v>0.04462184307558286</v>
+        <v>0.04541692340452203</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.8969952578389</v>
+        <v>18.65566266666667</v>
       </c>
       <c r="H8">
-        <v>17.8969952578389</v>
+        <v>55.966988</v>
       </c>
       <c r="I8">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958762</v>
       </c>
       <c r="J8">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958761</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>51.4615638380835</v>
+        <v>51.70670833333333</v>
       </c>
       <c r="N8">
-        <v>51.4615638380835</v>
+        <v>155.120125</v>
       </c>
       <c r="O8">
-        <v>0.1699578885137203</v>
+        <v>0.1699554927111273</v>
       </c>
       <c r="P8">
-        <v>0.1699578885137203</v>
+        <v>0.1699554927111273</v>
       </c>
       <c r="Q8">
-        <v>921.0073639711542</v>
+        <v>964.622908270389</v>
       </c>
       <c r="R8">
-        <v>921.0073639711542</v>
+        <v>8681.6061744335</v>
       </c>
       <c r="S8">
-        <v>0.009855760157465096</v>
+        <v>0.01007771889267842</v>
       </c>
       <c r="T8">
-        <v>0.009855760157465096</v>
+        <v>0.01007771889267842</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.8969952578389</v>
+        <v>18.65566266666667</v>
       </c>
       <c r="H9">
-        <v>17.8969952578389</v>
+        <v>55.966988</v>
       </c>
       <c r="I9">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958762</v>
       </c>
       <c r="J9">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958761</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.47902740581381</v>
+        <v>8.768542333333334</v>
       </c>
       <c r="N9">
-        <v>8.47902740581381</v>
+        <v>26.305627</v>
       </c>
       <c r="O9">
-        <v>0.0280029887757828</v>
+        <v>0.02882144272292286</v>
       </c>
       <c r="P9">
-        <v>0.0280029887757828</v>
+        <v>0.02882144272292286</v>
       </c>
       <c r="Q9">
-        <v>151.7491132729358</v>
+        <v>163.5829678490529</v>
       </c>
       <c r="R9">
-        <v>151.7491132729358</v>
+        <v>1472.246710641476</v>
       </c>
       <c r="S9">
-        <v>0.001623877205582149</v>
+        <v>0.001709002711296498</v>
       </c>
       <c r="T9">
-        <v>0.001623877205582149</v>
+        <v>0.001709002711296498</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.8969952578389</v>
+        <v>18.65566266666667</v>
       </c>
       <c r="H10">
-        <v>17.8969952578389</v>
+        <v>55.966988</v>
       </c>
       <c r="I10">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958762</v>
       </c>
       <c r="J10">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958761</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.93010830685243</v>
+        <v>6.761708</v>
       </c>
       <c r="N10">
-        <v>5.93010830685243</v>
+        <v>20.285124</v>
       </c>
       <c r="O10">
-        <v>0.01958488260600528</v>
+        <v>0.02222515127631772</v>
       </c>
       <c r="P10">
-        <v>0.01958488260600528</v>
+        <v>0.02222515127631772</v>
       </c>
       <c r="Q10">
-        <v>106.131120246209</v>
+        <v>126.1441434985013</v>
       </c>
       <c r="R10">
-        <v>106.131120246209</v>
+        <v>1135.297291486512</v>
       </c>
       <c r="S10">
-        <v>0.001135716072757139</v>
+        <v>0.001317867538948441</v>
       </c>
       <c r="T10">
-        <v>0.001135716072757139</v>
+        <v>0.001317867538948441</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.8969952578389</v>
+        <v>18.65566266666667</v>
       </c>
       <c r="H11">
-        <v>17.8969952578389</v>
+        <v>55.966988</v>
       </c>
       <c r="I11">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958762</v>
       </c>
       <c r="J11">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958761</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.92773688393973</v>
+        <v>3.974883333333333</v>
       </c>
       <c r="N11">
-        <v>3.92773688393973</v>
+        <v>11.92465</v>
       </c>
       <c r="O11">
-        <v>0.01297181464465803</v>
+        <v>0.0130650988461861</v>
       </c>
       <c r="P11">
-        <v>0.01297181464465803</v>
+        <v>0.01306509884618611</v>
       </c>
       <c r="Q11">
-        <v>70.29468838590829</v>
+        <v>74.15408260602223</v>
       </c>
       <c r="R11">
-        <v>70.29468838590829</v>
+        <v>667.3867434542</v>
       </c>
       <c r="S11">
-        <v>0.0007522280669809693</v>
+        <v>0.0007747110221422124</v>
       </c>
       <c r="T11">
-        <v>0.0007522280669809693</v>
+        <v>0.0007747110221422124</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>97.38132242466099</v>
+        <v>97.66137466666667</v>
       </c>
       <c r="H12">
-        <v>97.38132242466099</v>
+        <v>292.984124</v>
       </c>
       <c r="I12">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="J12">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>232.991650498693</v>
+        <v>233.0249173333333</v>
       </c>
       <c r="N12">
-        <v>232.991650498693</v>
+        <v>699.074752</v>
       </c>
       <c r="O12">
-        <v>0.7694824254598334</v>
+        <v>0.765932814443446</v>
       </c>
       <c r="P12">
-        <v>0.7694824254598334</v>
+        <v>0.765932814443446</v>
       </c>
       <c r="Q12">
-        <v>22689.03503946715</v>
+        <v>22757.5337583597</v>
       </c>
       <c r="R12">
-        <v>22689.03503946715</v>
+        <v>204817.8038252373</v>
       </c>
       <c r="S12">
-        <v>0.2427968508190055</v>
+        <v>0.2377551123253048</v>
       </c>
       <c r="T12">
-        <v>0.2427968508190055</v>
+        <v>0.2377551123253048</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>97.38132242466099</v>
+        <v>97.66137466666667</v>
       </c>
       <c r="H13">
-        <v>97.38132242466099</v>
+        <v>292.984124</v>
       </c>
       <c r="I13">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="J13">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>51.4615638380835</v>
+        <v>51.70670833333333</v>
       </c>
       <c r="N13">
-        <v>51.4615638380835</v>
+        <v>155.120125</v>
       </c>
       <c r="O13">
-        <v>0.1699578885137203</v>
+        <v>0.1699554927111273</v>
       </c>
       <c r="P13">
-        <v>0.1699578885137203</v>
+        <v>0.1699554927111273</v>
       </c>
       <c r="Q13">
-        <v>5011.395140593684</v>
+        <v>5049.748215321722</v>
       </c>
       <c r="R13">
-        <v>5011.395140593684</v>
+        <v>45447.7339378955</v>
       </c>
       <c r="S13">
-        <v>0.05362726780708384</v>
+        <v>0.05275630773072222</v>
       </c>
       <c r="T13">
-        <v>0.05362726780708384</v>
+        <v>0.05275630773072223</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>97.38132242466099</v>
+        <v>97.66137466666667</v>
       </c>
       <c r="H14">
-        <v>97.38132242466099</v>
+        <v>292.984124</v>
       </c>
       <c r="I14">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="J14">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.47902740581381</v>
+        <v>8.768542333333334</v>
       </c>
       <c r="N14">
-        <v>8.47902740581381</v>
+        <v>26.305627</v>
       </c>
       <c r="O14">
-        <v>0.0280029887757828</v>
+        <v>0.02882144272292286</v>
       </c>
       <c r="P14">
-        <v>0.0280029887757828</v>
+        <v>0.02882144272292286</v>
       </c>
       <c r="Q14">
-        <v>825.6989016530914</v>
+        <v>856.3478980961944</v>
       </c>
       <c r="R14">
-        <v>825.6989016530914</v>
+        <v>7707.131082865749</v>
       </c>
       <c r="S14">
-        <v>0.008835858056429294</v>
+        <v>0.0089465358093387</v>
       </c>
       <c r="T14">
-        <v>0.008835858056429294</v>
+        <v>0.0089465358093387</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>97.38132242466099</v>
+        <v>97.66137466666667</v>
       </c>
       <c r="H15">
-        <v>97.38132242466099</v>
+        <v>292.984124</v>
       </c>
       <c r="I15">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="J15">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.93010830685243</v>
+        <v>6.761708</v>
       </c>
       <c r="N15">
-        <v>5.93010830685243</v>
+        <v>20.285124</v>
       </c>
       <c r="O15">
-        <v>0.01958488260600528</v>
+        <v>0.02222515127631772</v>
       </c>
       <c r="P15">
-        <v>0.01958488260600528</v>
+        <v>0.02222515127631772</v>
       </c>
       <c r="Q15">
-        <v>577.481789042757</v>
+        <v>660.3576983745974</v>
       </c>
       <c r="R15">
-        <v>577.481789042757</v>
+        <v>5943.219285371376</v>
       </c>
       <c r="S15">
-        <v>0.006179670468180454</v>
+        <v>0.00689896455472724</v>
       </c>
       <c r="T15">
-        <v>0.006179670468180454</v>
+        <v>0.00689896455472724</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>97.38132242466099</v>
+        <v>97.66137466666667</v>
       </c>
       <c r="H16">
-        <v>97.38132242466099</v>
+        <v>292.984124</v>
       </c>
       <c r="I16">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="J16">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.92773688393973</v>
+        <v>3.974883333333333</v>
       </c>
       <c r="N16">
-        <v>3.92773688393973</v>
+        <v>11.92465</v>
       </c>
       <c r="O16">
-        <v>0.01297181464465803</v>
+        <v>0.0130650988461861</v>
       </c>
       <c r="P16">
-        <v>0.01297181464465803</v>
+        <v>0.01306509884618611</v>
       </c>
       <c r="Q16">
-        <v>382.4882118941682</v>
+        <v>388.1925704729555</v>
       </c>
       <c r="R16">
-        <v>382.4882118941682</v>
+        <v>3493.7331342566</v>
       </c>
       <c r="S16">
-        <v>0.004093031420761449</v>
+        <v>0.004055569868714048</v>
       </c>
       <c r="T16">
-        <v>0.004093031420761449</v>
+        <v>0.004055569868714049</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>136.873918857693</v>
+        <v>138.7199146666667</v>
       </c>
       <c r="H17">
-        <v>136.873918857693</v>
+        <v>416.159744</v>
       </c>
       <c r="I17">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="J17">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>232.991650498693</v>
+        <v>233.0249173333333</v>
       </c>
       <c r="N17">
-        <v>232.991650498693</v>
+        <v>699.074752</v>
       </c>
       <c r="O17">
-        <v>0.7694824254598334</v>
+        <v>0.765932814443446</v>
       </c>
       <c r="P17">
-        <v>0.7694824254598334</v>
+        <v>0.765932814443446</v>
       </c>
       <c r="Q17">
-        <v>31890.48026487808</v>
+        <v>32325.19664768705</v>
       </c>
       <c r="R17">
-        <v>31890.48026487808</v>
+        <v>290926.7698291835</v>
       </c>
       <c r="S17">
-        <v>0.3412621191667869</v>
+        <v>0.3377114955211365</v>
       </c>
       <c r="T17">
-        <v>0.3412621191667869</v>
+        <v>0.3377114955211365</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>136.873918857693</v>
+        <v>138.7199146666667</v>
       </c>
       <c r="H18">
-        <v>136.873918857693</v>
+        <v>416.159744</v>
       </c>
       <c r="I18">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="J18">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>51.4615638380835</v>
+        <v>51.70670833333333</v>
       </c>
       <c r="N18">
-        <v>51.4615638380835</v>
+        <v>155.120125</v>
       </c>
       <c r="O18">
-        <v>0.1699578885137203</v>
+        <v>0.1699554927111273</v>
       </c>
       <c r="P18">
-        <v>0.1699578885137203</v>
+        <v>0.1699554927111273</v>
       </c>
       <c r="Q18">
-        <v>7043.74591306383</v>
+        <v>7172.750167694223</v>
       </c>
       <c r="R18">
-        <v>7043.74591306383</v>
+        <v>64554.75150924801</v>
       </c>
       <c r="S18">
-        <v>0.07537558660764017</v>
+        <v>0.07493597680262901</v>
       </c>
       <c r="T18">
-        <v>0.07537558660764017</v>
+        <v>0.07493597680262902</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>136.873918857693</v>
+        <v>138.7199146666667</v>
       </c>
       <c r="H19">
-        <v>136.873918857693</v>
+        <v>416.159744</v>
       </c>
       <c r="I19">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="J19">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.47902740581381</v>
+        <v>8.768542333333334</v>
       </c>
       <c r="N19">
-        <v>8.47902740581381</v>
+        <v>26.305627</v>
       </c>
       <c r="O19">
-        <v>0.0280029887757828</v>
+        <v>0.02882144272292286</v>
       </c>
       <c r="P19">
-        <v>0.0280029887757828</v>
+        <v>0.02882144272292286</v>
       </c>
       <c r="Q19">
-        <v>1160.557709135515</v>
+        <v>1216.371444231055</v>
       </c>
       <c r="R19">
-        <v>1160.557709135515</v>
+        <v>10947.34299807949</v>
       </c>
       <c r="S19">
-        <v>0.0124192040993225</v>
+        <v>0.01270781502174919</v>
       </c>
       <c r="T19">
-        <v>0.0124192040993225</v>
+        <v>0.01270781502174919</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>136.873918857693</v>
+        <v>138.7199146666667</v>
       </c>
       <c r="H20">
-        <v>136.873918857693</v>
+        <v>416.159744</v>
       </c>
       <c r="I20">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="J20">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.93010830685243</v>
+        <v>6.761708</v>
       </c>
       <c r="N20">
-        <v>5.93010830685243</v>
+        <v>20.285124</v>
       </c>
       <c r="O20">
-        <v>0.01958488260600528</v>
+        <v>0.02222515127631772</v>
       </c>
       <c r="P20">
-        <v>0.01958488260600528</v>
+        <v>0.02222515127631772</v>
       </c>
       <c r="Q20">
-        <v>811.6771632094509</v>
+        <v>937.9835567609174</v>
       </c>
       <c r="R20">
-        <v>811.6771632094509</v>
+        <v>8441.852010848257</v>
       </c>
       <c r="S20">
-        <v>0.00868581051446897</v>
+        <v>0.009799409209491374</v>
       </c>
       <c r="T20">
-        <v>0.00868581051446897</v>
+        <v>0.009799409209491374</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>136.873918857693</v>
+        <v>138.7199146666667</v>
       </c>
       <c r="H21">
-        <v>136.873918857693</v>
+        <v>416.159744</v>
       </c>
       <c r="I21">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="J21">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.92773688393973</v>
+        <v>3.974883333333333</v>
       </c>
       <c r="N21">
-        <v>3.92773688393973</v>
+        <v>11.92465</v>
       </c>
       <c r="O21">
-        <v>0.01297181464465803</v>
+        <v>0.0130650988461861</v>
       </c>
       <c r="P21">
-        <v>0.01297181464465803</v>
+        <v>0.01306509884618611</v>
       </c>
       <c r="Q21">
-        <v>537.6047395467347</v>
+        <v>551.3954768099555</v>
       </c>
       <c r="R21">
-        <v>537.6047395467347</v>
+        <v>4962.559291289601</v>
       </c>
       <c r="S21">
-        <v>0.005752943548293992</v>
+        <v>0.005760601957866331</v>
       </c>
       <c r="T21">
-        <v>0.005752943548293992</v>
+        <v>0.005760601957866332</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.95439389772258</v>
+        <v>10.83447233333333</v>
       </c>
       <c r="H22">
-        <v>8.95439389772258</v>
+        <v>32.503417</v>
       </c>
       <c r="I22">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="J22">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>232.991650498693</v>
+        <v>233.0249173333333</v>
       </c>
       <c r="N22">
-        <v>232.991650498693</v>
+        <v>699.074752</v>
       </c>
       <c r="O22">
-        <v>0.7694824254598334</v>
+        <v>0.765932814443446</v>
       </c>
       <c r="P22">
-        <v>0.7694824254598334</v>
+        <v>0.765932814443446</v>
       </c>
       <c r="Q22">
-        <v>2086.299013445809</v>
+        <v>2524.702019825287</v>
       </c>
       <c r="R22">
-        <v>2086.299013445809</v>
+        <v>22722.31817842758</v>
       </c>
       <c r="S22">
-        <v>0.02232562246258211</v>
+        <v>0.02637635600962194</v>
       </c>
       <c r="T22">
-        <v>0.02232562246258211</v>
+        <v>0.02637635600962194</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.95439389772258</v>
+        <v>10.83447233333333</v>
       </c>
       <c r="H23">
-        <v>8.95439389772258</v>
+        <v>32.503417</v>
       </c>
       <c r="I23">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="J23">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>51.4615638380835</v>
+        <v>51.70670833333333</v>
       </c>
       <c r="N23">
-        <v>51.4615638380835</v>
+        <v>155.120125</v>
       </c>
       <c r="O23">
-        <v>0.1699578885137203</v>
+        <v>0.1699554927111273</v>
       </c>
       <c r="P23">
-        <v>0.1699578885137203</v>
+        <v>0.1699554927111273</v>
       </c>
       <c r="Q23">
-        <v>460.8071131989959</v>
+        <v>560.214900885236</v>
       </c>
       <c r="R23">
-        <v>460.8071131989959</v>
+        <v>5041.934107967125</v>
       </c>
       <c r="S23">
-        <v>0.004931127116031849</v>
+        <v>0.005852741254853753</v>
       </c>
       <c r="T23">
-        <v>0.004931127116031849</v>
+        <v>0.005852741254853754</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.95439389772258</v>
+        <v>10.83447233333333</v>
       </c>
       <c r="H24">
-        <v>8.95439389772258</v>
+        <v>32.503417</v>
       </c>
       <c r="I24">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="J24">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.47902740581381</v>
+        <v>8.768542333333334</v>
       </c>
       <c r="N24">
-        <v>8.47902740581381</v>
+        <v>26.305627</v>
       </c>
       <c r="O24">
-        <v>0.0280029887757828</v>
+        <v>0.02882144272292286</v>
       </c>
       <c r="P24">
-        <v>0.0280029887757828</v>
+        <v>0.02882144272292286</v>
       </c>
       <c r="Q24">
-        <v>75.9245512612417</v>
+        <v>95.00252931416212</v>
       </c>
       <c r="R24">
-        <v>75.9245512612417</v>
+        <v>855.022763827459</v>
       </c>
       <c r="S24">
-        <v>0.0008124735985470348</v>
+        <v>0.0009925213016537657</v>
       </c>
       <c r="T24">
-        <v>0.0008124735985470348</v>
+        <v>0.0009925213016537654</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.95439389772258</v>
+        <v>10.83447233333333</v>
       </c>
       <c r="H25">
-        <v>8.95439389772258</v>
+        <v>32.503417</v>
       </c>
       <c r="I25">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="J25">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.93010830685243</v>
+        <v>6.761708</v>
       </c>
       <c r="N25">
-        <v>5.93010830685243</v>
+        <v>20.285124</v>
       </c>
       <c r="O25">
-        <v>0.01958488260600528</v>
+        <v>0.02222515127631772</v>
       </c>
       <c r="P25">
-        <v>0.01958488260600528</v>
+        <v>0.02222515127631772</v>
       </c>
       <c r="Q25">
-        <v>53.10052563571338</v>
+        <v>73.25953825207866</v>
       </c>
       <c r="R25">
-        <v>53.10052563571338</v>
+        <v>659.335844268708</v>
       </c>
       <c r="S25">
-        <v>0.000568232204620363</v>
+        <v>0.0007653654359460063</v>
       </c>
       <c r="T25">
-        <v>0.000568232204620363</v>
+        <v>0.0007653654359460063</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>8.95439389772258</v>
+        <v>10.83447233333333</v>
       </c>
       <c r="H26">
-        <v>8.95439389772258</v>
+        <v>32.503417</v>
       </c>
       <c r="I26">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="J26">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.92773688393973</v>
+        <v>3.974883333333333</v>
       </c>
       <c r="N26">
-        <v>3.92773688393973</v>
+        <v>11.92465</v>
       </c>
       <c r="O26">
-        <v>0.01297181464465803</v>
+        <v>0.0130650988461861</v>
       </c>
       <c r="P26">
-        <v>0.01297181464465803</v>
+        <v>0.01306509884618611</v>
       </c>
       <c r="Q26">
-        <v>35.17050318540982</v>
+        <v>43.06576350322777</v>
       </c>
       <c r="R26">
-        <v>35.17050318540982</v>
+        <v>387.59187152905</v>
       </c>
       <c r="S26">
-        <v>0.0003763618593864119</v>
+        <v>0.0004499215753255215</v>
       </c>
       <c r="T26">
-        <v>0.0003763618593864119</v>
+        <v>0.0004499215753255216</v>
       </c>
     </row>
   </sheetData>
